--- a/Gerenciamento de Projeto/Checklist Acompanhamento do Projeto.xlsx
+++ b/Gerenciamento de Projeto/Checklist Acompanhamento do Projeto.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Indicadores" sheetId="1" state="visible" r:id="rId2"/>
@@ -754,7 +754,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="135">
   <si>
     <t xml:space="preserve">IAP - Indicador de Aderência ao Processo (70% a 100%)</t>
   </si>
@@ -855,6 +855,9 @@
     <t xml:space="preserve">Nome do Verificador:</t>
   </si>
   <si>
+    <t xml:space="preserve">Gabriel Roque Iope</t>
+  </si>
+  <si>
     <t xml:space="preserve">O ideal é que o índice de aderência ao processo tenha entre 70 e 100%</t>
   </si>
   <si>
@@ -996,6 +999,9 @@
     <t xml:space="preserve">Foi alterado por mudança? Se sim houve impacto? Se sim o planejamento foi atualizado?</t>
   </si>
   <si>
+    <t xml:space="preserve">Não foi alterado</t>
+  </si>
+  <si>
     <t xml:space="preserve">O modelo de casos de uso, escopo do sistema em termos de funcionalidades, e respectivas permissões de acesso estão atualizados?</t>
   </si>
   <si>
@@ -1014,6 +1020,9 @@
     <t xml:space="preserve">Foi atualizado?</t>
   </si>
   <si>
+    <t xml:space="preserve">Não foi utilizado reunião com cliente na elaboração</t>
+  </si>
+  <si>
     <t xml:space="preserve">Desenvolvimento - Análise e Design</t>
   </si>
   <si>
@@ -1069,6 +1078,9 @@
   </si>
   <si>
     <t xml:space="preserve">Foram feitas as reuniões de Revisão do Produto e Processo?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Não realizado mudança do escopo inicial</t>
   </si>
   <si>
     <t xml:space="preserve">Foram geradas requisições de mudanças usando o template do SpinOff?</t>
@@ -1487,7 +1499,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1663,7 +1675,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1759,17 +1771,20 @@
                 <c:pt idx="0">
                   <c:v>0.96875</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.857142857142857</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="69448885"/>
-        <c:axId val="20863640"/>
+        <c:axId val="16050379"/>
+        <c:axId val="16702393"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="69448885"/>
+        <c:axId val="16050379"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1801,7 +1816,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="20863640"/>
+        <c:crossAx val="16702393"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1809,7 +1824,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="20863640"/>
+        <c:axId val="16702393"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1851,7 +1866,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="69448885"/>
+        <c:crossAx val="16050379"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1879,7 +1894,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2470,11 +2485,11 @@
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="37390755"/>
-        <c:axId val="97559385"/>
+        <c:axId val="20317315"/>
+        <c:axId val="22130152"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="37390755"/>
+        <c:axId val="20317315"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2506,7 +2521,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="97559385"/>
+        <c:crossAx val="22130152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2514,7 +2529,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="97559385"/>
+        <c:axId val="22130152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2553,7 +2568,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="37390755"/>
+        <c:crossAx val="20317315"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2605,7 +2620,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2749,6 +2764,39 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.833333333333333</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2852,6 +2900,39 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2955,6 +3036,39 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.166666666666667</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3058,17 +3172,50 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="88339332"/>
-        <c:axId val="34166173"/>
+        <c:axId val="76814610"/>
+        <c:axId val="41630312"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="88339332"/>
+        <c:axId val="76814610"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3100,7 +3247,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="34166173"/>
+        <c:crossAx val="41630312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3108,7 +3255,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="34166173"/>
+        <c:axId val="41630312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3147,7 +3294,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="88339332"/>
+        <c:crossAx val="76814610"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3199,7 +3346,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3670,11 +3817,11 @@
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="44372096"/>
-        <c:axId val="86197264"/>
+        <c:axId val="15772593"/>
+        <c:axId val="25217789"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="44372096"/>
+        <c:axId val="15772593"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3706,7 +3853,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="86197264"/>
+        <c:crossAx val="25217789"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3714,7 +3861,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="86197264"/>
+        <c:axId val="25217789"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3753,7 +3900,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="44372096"/>
+        <c:crossAx val="15772593"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3805,7 +3952,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4288,11 +4435,11 @@
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="22120133"/>
-        <c:axId val="23788529"/>
+        <c:axId val="14466029"/>
+        <c:axId val="44394914"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="22120133"/>
+        <c:axId val="14466029"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4324,7 +4471,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="23788529"/>
+        <c:crossAx val="44394914"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4332,7 +4479,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="23788529"/>
+        <c:axId val="44394914"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4371,7 +4518,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="22120133"/>
+        <c:crossAx val="14466029"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4434,9 +4581,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>3467160</xdr:colOff>
+      <xdr:colOff>3466800</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>94680</xdr:rowOff>
+      <xdr:rowOff>94320</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4445,7 +4592,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="9360" y="1523880"/>
-        <a:ext cx="5616720" cy="2047320"/>
+        <a:ext cx="5616360" cy="2046960"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4469,9 +4616,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>212760</xdr:colOff>
+      <xdr:colOff>212400</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>176040</xdr:rowOff>
+      <xdr:rowOff>175680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4480,7 +4627,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
-        <a:ext cx="8872920" cy="3795480"/>
+        <a:ext cx="8872560" cy="3795120"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4499,9 +4646,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>26640</xdr:colOff>
+      <xdr:colOff>26280</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>173520</xdr:rowOff>
+      <xdr:rowOff>173160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4510,7 +4657,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="8891640" y="0"/>
-        <a:ext cx="8709840" cy="3792960"/>
+        <a:ext cx="8709480" cy="3792600"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4529,9 +4676,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>230760</xdr:colOff>
+      <xdr:colOff>230400</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>135360</xdr:rowOff>
+      <xdr:rowOff>135000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4540,7 +4687,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="3812760"/>
-        <a:ext cx="8890920" cy="3752280"/>
+        <a:ext cx="8890560" cy="3751920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4559,9 +4706,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>26280</xdr:colOff>
+      <xdr:colOff>25920</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:rowOff>136800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4570,7 +4717,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="8904960" y="3823560"/>
-        <a:ext cx="8696160" cy="3743280"/>
+        <a:ext cx="8695800" cy="3742920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4627,9 +4774,9 @@
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="5" t="e">
+      <c r="B4" s="5" t="n">
         <f aca="false">'Ver-Elaboração1'!$F$2</f>
-        <v>#DIV/0!</v>
+        <v>0.857142857142857</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4743,21 +4890,21 @@
       <c r="N2" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="6" t="e">
+      <c r="O2" s="6" t="n">
         <f aca="false">('Ver-Elaboração1'!$G$6/SUM('Ver-Elaboração1'!$G$6:$J$6))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P2" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="P2" s="6" t="n">
         <f aca="false">('Ver-Elaboração1'!$H$6/SUM('Ver-Elaboração1'!$G$6:$J$6))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q2" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="6" t="n">
         <f aca="false">('Ver-Elaboração1'!$I$6/SUM('Ver-Elaboração1'!$G$6:$J$6))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R2" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="R2" s="6" t="n">
         <f aca="false">('Ver-Elaboração1'!$J$6/SUM('Ver-Elaboração1'!$G$6:$J$6))</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4783,21 +4930,21 @@
       <c r="N3" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="6" t="e">
+      <c r="O3" s="6" t="n">
         <f aca="false">('Ver-Elaboração1'!$G$8/SUM('Ver-Elaboração1'!$G$8:$J$8))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P3" s="6" t="e">
+        <v>1</v>
+      </c>
+      <c r="P3" s="6" t="n">
         <f aca="false">('Ver-Elaboração1'!$H$8/SUM('Ver-Elaboração1'!$G$8:$J$8))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q3" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="6" t="n">
         <f aca="false">('Ver-Elaboração1'!$I$8/SUM('Ver-Elaboração1'!$G$8:$J$8))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R3" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="R3" s="6" t="n">
         <f aca="false">('Ver-Elaboração1'!$J$8/SUM('Ver-Elaboração1'!$G$8:$J$8))</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4823,21 +4970,21 @@
       <c r="N4" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="O4" s="6" t="e">
+      <c r="O4" s="6" t="n">
         <f aca="false">('Ver-Elaboração1'!$G$10/SUM('Ver-Elaboração1'!$G$10:$J$10))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P4" s="6" t="e">
+        <v>1</v>
+      </c>
+      <c r="P4" s="6" t="n">
         <f aca="false">('Ver-Elaboração1'!$H$10/SUM('Ver-Elaboração1'!$G$10:$J$10))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q4" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="6" t="n">
         <f aca="false">('Ver-Elaboração1'!$I$10/SUM('Ver-Elaboração1'!$G$10:$J$10))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R4" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="R4" s="6" t="n">
         <f aca="false">('Ver-Elaboração1'!$J$10/SUM('Ver-Elaboração1'!$G$10:$J$10))</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4863,21 +5010,21 @@
       <c r="N5" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="O5" s="6" t="e">
+      <c r="O5" s="6" t="n">
         <f aca="false">('Ver-Elaboração1'!$G$15/SUM('Ver-Elaboração1'!$G$15:$J$15))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P5" s="6" t="e">
+        <v>1</v>
+      </c>
+      <c r="P5" s="6" t="n">
         <f aca="false">('Ver-Elaboração1'!$H$15/SUM('Ver-Elaboração1'!$G$15:$J$15))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q5" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="6" t="n">
         <f aca="false">('Ver-Elaboração1'!$I$15/SUM('Ver-Elaboração1'!$G$15:$J$15))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R5" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="R5" s="6" t="n">
         <f aca="false">('Ver-Elaboração1'!$J$15/SUM('Ver-Elaboração1'!$G$15:$J$15))</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4903,21 +5050,21 @@
       <c r="N6" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="O6" s="6" t="e">
+      <c r="O6" s="6" t="n">
         <f aca="false">('Ver-Elaboração1'!$G$17/SUM('Ver-Elaboração1'!$G$17:$J$17))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="P6" s="6" t="n">
         <f aca="false">('Ver-Elaboração1'!$H$17/SUM('Ver-Elaboração1'!$G$17:$J$17))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="6" t="n">
         <f aca="false">('Ver-Elaboração1'!$I$17/SUM('Ver-Elaboração1'!$G$17:$J$17))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="R6" s="6" t="n">
         <f aca="false">('Ver-Elaboração1'!$J$17/SUM('Ver-Elaboração1'!$G$17:$J$17))</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4943,21 +5090,21 @@
       <c r="N7" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="O7" s="6" t="e">
+      <c r="O7" s="6" t="n">
         <f aca="false">('Ver-Elaboração1'!$G$19/SUM('Ver-Elaboração1'!$G$19:$J$19))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P7" s="6" t="e">
+        <v>1</v>
+      </c>
+      <c r="P7" s="6" t="n">
         <f aca="false">('Ver-Elaboração1'!$H$19/SUM('Ver-Elaboração1'!$G$19:$J$19))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q7" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="6" t="n">
         <f aca="false">('Ver-Elaboração1'!$I$19/SUM('Ver-Elaboração1'!$G$19:$J$19))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R7" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="R7" s="6" t="n">
         <f aca="false">('Ver-Elaboração1'!$J$19/SUM('Ver-Elaboração1'!$G$19:$J$19))</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4983,21 +5130,21 @@
       <c r="N8" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="O8" s="6" t="e">
+      <c r="O8" s="6" t="n">
         <f aca="false">('Ver-Elaboração1'!$G$25/SUM('Ver-Elaboração1'!$G$25:$J$25))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P8" s="6" t="e">
+        <v>1</v>
+      </c>
+      <c r="P8" s="6" t="n">
         <f aca="false">('Ver-Elaboração1'!$H$25/SUM('Ver-Elaboração1'!$G$25:$J$25))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q8" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="6" t="n">
         <f aca="false">('Ver-Elaboração1'!$I$25/SUM('Ver-Elaboração1'!$G$25:$J$25))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R8" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="R8" s="6" t="n">
         <f aca="false">('Ver-Elaboração1'!$J$25/SUM('Ver-Elaboração1'!$G$25:$J$25))</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5023,21 +5170,21 @@
       <c r="N9" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="O9" s="6" t="e">
+      <c r="O9" s="6" t="n">
         <f aca="false">('Ver-Elaboração1'!$G$28/SUM('Ver-Elaboração1'!$G$28:$J$28))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P9" s="6" t="e">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="P9" s="6" t="n">
         <f aca="false">('Ver-Elaboração1'!$H$28/SUM('Ver-Elaboração1'!$G$28:$J$28))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q9" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="6" t="n">
         <f aca="false">('Ver-Elaboração1'!$I$28/SUM('Ver-Elaboração1'!$G$28:$J$28))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R9" s="6" t="e">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="R9" s="6" t="n">
         <f aca="false">('Ver-Elaboração1'!$J$28/SUM('Ver-Elaboração1'!$G$28:$J$28))</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5063,21 +5210,21 @@
       <c r="N10" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="O10" s="6" t="e">
+      <c r="O10" s="6" t="n">
         <f aca="false">('Ver-Elaboração1'!$G$35/SUM('Ver-Elaboração1'!$G$35:$J$35))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P10" s="6" t="e">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="P10" s="6" t="n">
         <f aca="false">('Ver-Elaboração1'!$H$35/SUM('Ver-Elaboração1'!$G$35:$J$35))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q10" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="6" t="n">
         <f aca="false">('Ver-Elaboração1'!$I$35/SUM('Ver-Elaboração1'!$G$35:$J$35))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R10" s="6" t="e">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="R10" s="6" t="n">
         <f aca="false">('Ver-Elaboração1'!$J$35/SUM('Ver-Elaboração1'!$G$35:$J$35))</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5103,21 +5250,21 @@
       <c r="N11" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="O11" s="6" t="e">
+      <c r="O11" s="6" t="n">
         <f aca="false">('Ver-Elaboração1'!$G$42/SUM('Ver-Elaboração1'!$G$42:$J$42))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P11" s="6" t="e">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="P11" s="6" t="n">
         <f aca="false">('Ver-Elaboração1'!$H$42/SUM('Ver-Elaboração1'!$G$42:$J$42))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q11" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="6" t="n">
         <f aca="false">('Ver-Elaboração1'!$I$42/SUM('Ver-Elaboração1'!$G$42:$J$42))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R11" s="6" t="e">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="R11" s="6" t="n">
         <f aca="false">('Ver-Elaboração1'!$J$42/SUM('Ver-Elaboração1'!$G$42:$J$42))</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5143,21 +5290,21 @@
       <c r="N12" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="O12" s="6" t="e">
+      <c r="O12" s="6" t="n">
         <f aca="false">('Ver-Elaboração1'!$G$46/SUM('Ver-Elaboração1'!$G$46:$J$46))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P12" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="P12" s="6" t="n">
         <f aca="false">('Ver-Elaboração1'!$H$46/SUM('Ver-Elaboração1'!$G$46:$J$46))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q12" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="6" t="n">
         <f aca="false">('Ver-Elaboração1'!$I$46/SUM('Ver-Elaboração1'!$G$46:$J$46))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R12" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="R12" s="6" t="n">
         <f aca="false">('Ver-Elaboração1'!$J$46/SUM('Ver-Elaboração1'!$G$46:$J$46))</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5716,8 +5863,8 @@
   </sheetPr>
   <dimension ref="A1:J52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4296875" defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5764,36 +5911,38 @@
         <v>32</v>
       </c>
       <c r="B3" s="12"/>
-      <c r="C3" s="16"/>
+      <c r="C3" s="16" t="s">
+        <v>33</v>
+      </c>
       <c r="D3" s="17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E3" s="17"/>
       <c r="F3" s="17"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="21" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B5" s="22"/>
       <c r="C5" s="23" t="s">
@@ -5825,17 +5974,17 @@
         <v>1</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E6" s="26"/>
       <c r="F6" s="26"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B7" s="22"/>
       <c r="C7" s="23" t="s">
@@ -5867,10 +6016,10 @@
         <v>2</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E8" s="26"/>
       <c r="F8" s="26"/>
@@ -5881,10 +6030,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E9" s="26"/>
       <c r="F9" s="26"/>
@@ -5895,10 +6044,10 @@
         <v>4</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E10" s="26"/>
       <c r="F10" s="26"/>
@@ -5909,10 +6058,10 @@
         <v>5</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E11" s="26"/>
       <c r="F11" s="26"/>
@@ -5923,10 +6072,10 @@
         <v>6</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E12" s="26"/>
       <c r="F12" s="26"/>
@@ -5963,10 +6112,10 @@
         <v>7</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E14" s="26"/>
       <c r="F14" s="26"/>
@@ -5977,10 +6126,10 @@
         <v>8</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E15" s="26"/>
       <c r="F15" s="26"/>
@@ -5991,10 +6140,10 @@
         <v>9</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E16" s="26"/>
       <c r="F16" s="26"/>
@@ -6005,10 +6154,10 @@
         <v>10</v>
       </c>
       <c r="C17" s="30" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D17" s="27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E17" s="26"/>
       <c r="F17" s="26"/>
@@ -6019,10 +6168,10 @@
         <v>11</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D18" s="27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E18" s="26"/>
       <c r="F18" s="26"/>
@@ -6059,10 +6208,10 @@
         <v>12</v>
       </c>
       <c r="C20" s="30" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D20" s="27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E20" s="26"/>
       <c r="F20" s="26"/>
@@ -6073,10 +6222,10 @@
         <v>13</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D21" s="27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E21" s="26"/>
       <c r="F21" s="26"/>
@@ -6113,10 +6262,10 @@
         <v>14</v>
       </c>
       <c r="C23" s="30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D23" s="27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E23" s="26"/>
       <c r="F23" s="26"/>
@@ -6127,10 +6276,10 @@
         <v>15</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D24" s="27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E24" s="26"/>
       <c r="F24" s="26"/>
@@ -6167,13 +6316,13 @@
         <v>16</v>
       </c>
       <c r="C26" s="30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D26" s="27" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E26" s="26" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F26" s="26"/>
     </row>
@@ -6183,17 +6332,17 @@
         <v>17</v>
       </c>
       <c r="C27" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D27" s="27" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E27" s="26"/>
       <c r="F27" s="26"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="28" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B28" s="22"/>
       <c r="C28" s="23" t="s">
@@ -6225,10 +6374,10 @@
         <v>18</v>
       </c>
       <c r="C29" s="30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D29" s="27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E29" s="26"/>
       <c r="F29" s="26"/>
@@ -6265,10 +6414,10 @@
         <v>18</v>
       </c>
       <c r="C31" s="30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D31" s="27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E31" s="26"/>
       <c r="F31" s="26"/>
@@ -6279,10 +6428,10 @@
         <v>19</v>
       </c>
       <c r="C32" s="26" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D32" s="27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E32" s="26"/>
       <c r="F32" s="26"/>
@@ -6293,10 +6442,10 @@
         <v>20</v>
       </c>
       <c r="C33" s="26" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D33" s="27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E33" s="26"/>
       <c r="F33" s="26"/>
@@ -6333,10 +6482,10 @@
         <v>21</v>
       </c>
       <c r="C35" s="30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D35" s="27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E35" s="26"/>
       <c r="F35" s="26"/>
@@ -6347,10 +6496,10 @@
         <v>22</v>
       </c>
       <c r="C36" s="26" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D36" s="27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E36" s="26"/>
       <c r="F36" s="26"/>
@@ -6361,10 +6510,10 @@
         <v>23</v>
       </c>
       <c r="C37" s="26" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D37" s="27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E37" s="26"/>
       <c r="F37" s="26"/>
@@ -6375,10 +6524,10 @@
         <v>24</v>
       </c>
       <c r="C38" s="26" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D38" s="27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E38" s="26"/>
       <c r="F38" s="26"/>
@@ -6389,10 +6538,10 @@
         <v>25</v>
       </c>
       <c r="C39" s="26" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D39" s="27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E39" s="26"/>
       <c r="F39" s="26"/>
@@ -6403,10 +6552,10 @@
         <v>26</v>
       </c>
       <c r="C40" s="26" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D40" s="35" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F40" s="26"/>
     </row>
@@ -6416,10 +6565,10 @@
         <v>27</v>
       </c>
       <c r="C41" s="26" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D41" s="35" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E41" s="26"/>
       <c r="F41" s="26"/>
@@ -6430,10 +6579,10 @@
         <v>28</v>
       </c>
       <c r="C42" s="26" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D42" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E42" s="26"/>
       <c r="F42" s="26"/>
@@ -6444,17 +6593,17 @@
         <v>29</v>
       </c>
       <c r="C43" s="26" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D43" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E43" s="26"/>
       <c r="F43" s="26"/>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="38" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B44" s="22"/>
       <c r="C44" s="23" t="s">
@@ -6486,10 +6635,10 @@
         <v>30</v>
       </c>
       <c r="C45" s="30" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D45" s="27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E45" s="26"/>
       <c r="F45" s="26"/>
@@ -6500,10 +6649,10 @@
         <v>31</v>
       </c>
       <c r="C46" s="26" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D46" s="27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E46" s="26"/>
       <c r="F46" s="26"/>
@@ -6514,10 +6663,10 @@
         <v>32</v>
       </c>
       <c r="C47" s="26" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D47" s="27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E47" s="26"/>
       <c r="F47" s="26"/>
@@ -6528,10 +6677,10 @@
         <v>33</v>
       </c>
       <c r="C48" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D48" s="27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E48" s="26"/>
       <c r="F48" s="26"/>
@@ -6568,13 +6717,13 @@
         <v>34</v>
       </c>
       <c r="C50" s="30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D50" s="27" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E50" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F50" s="39"/>
     </row>
@@ -6584,10 +6733,10 @@
         <v>35</v>
       </c>
       <c r="C51" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D51" s="27" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E51" s="26"/>
       <c r="F51" s="26"/>
@@ -6598,10 +6747,10 @@
         <v>36</v>
       </c>
       <c r="C52" s="26" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D52" s="27" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E52" s="26"/>
       <c r="F52" s="26"/>
@@ -6650,8 +6799,8 @@
   </sheetPr>
   <dimension ref="A1:J48"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A24" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D43" activeCellId="0" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4296875" defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6685,9 +6834,9 @@
         <v>31</v>
       </c>
       <c r="E2" s="14"/>
-      <c r="F2" s="15" t="e">
+      <c r="F2" s="15" t="n">
         <f aca="false">COUNTIF(D5:D48,"Sim")/(COUNTA(D5:D49)-COUNTIF(D5:D49,"NA"))</f>
-        <v>#DIV/0!</v>
+        <v>0.857142857142857</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6695,36 +6844,38 @@
         <v>32</v>
       </c>
       <c r="B3" s="12"/>
-      <c r="C3" s="16"/>
+      <c r="C3" s="16" t="s">
+        <v>33</v>
+      </c>
       <c r="D3" s="17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E3" s="17"/>
       <c r="F3" s="17"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B5" s="22"/>
       <c r="C5" s="23" t="s">
@@ -6740,10 +6891,14 @@
         <v>1</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="D6" s="34"/>
-      <c r="E6" s="26"/>
+        <v>80</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>81</v>
+      </c>
       <c r="F6" s="26"/>
       <c r="G6" s="0" t="n">
         <f aca="false">COUNTIF(D6,"Sim")</f>
@@ -6759,7 +6914,7 @@
       </c>
       <c r="J6" s="0" t="n">
         <f aca="false">COUNTIF(D6,"NA")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6778,14 +6933,16 @@
         <v>2</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="D8" s="34"/>
+        <v>82</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>43</v>
+      </c>
       <c r="E8" s="26"/>
       <c r="F8" s="26"/>
       <c r="G8" s="31" t="n">
         <f aca="false">COUNTIF(D8,"Sim")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" s="31" t="n">
         <f aca="false">COUNTIF(D8,"Parcialmente")</f>
@@ -6816,14 +6973,16 @@
         <v>3</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="D10" s="34"/>
+        <v>83</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>43</v>
+      </c>
       <c r="E10" s="26"/>
       <c r="F10" s="26"/>
       <c r="G10" s="0" t="n">
         <f aca="false">COUNTIF(D10:D13,"Sim")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H10" s="0" t="n">
         <f aca="false">COUNTIF(D10:D13,"Parcialmente")</f>
@@ -6844,9 +7003,11 @@
         <v>4</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="D11" s="34"/>
+        <v>84</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>43</v>
+      </c>
       <c r="E11" s="26"/>
       <c r="F11" s="26"/>
     </row>
@@ -6856,9 +7017,11 @@
         <v>5</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="D12" s="34"/>
+        <v>85</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>43</v>
+      </c>
       <c r="E12" s="26"/>
       <c r="F12" s="26"/>
     </row>
@@ -6868,9 +7031,11 @@
         <v>6</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="D13" s="34"/>
+        <v>86</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>43</v>
+      </c>
       <c r="E13" s="26"/>
       <c r="F13" s="26"/>
     </row>
@@ -6890,14 +7055,16 @@
         <v>7</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="D15" s="34"/>
+        <v>87</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>43</v>
+      </c>
       <c r="E15" s="26"/>
       <c r="F15" s="26"/>
       <c r="G15" s="0" t="n">
         <f aca="false">COUNTIF(D15,"Sim")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" s="0" t="n">
         <f aca="false">COUNTIF(D15,"Parcialmente")</f>
@@ -6922,16 +7089,20 @@
       <c r="E16" s="24"/>
       <c r="F16" s="24"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="28"/>
       <c r="B17" s="25" t="n">
         <v>8</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="D17" s="34"/>
-      <c r="E17" s="26"/>
+        <v>59</v>
+      </c>
+      <c r="D17" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="26" t="s">
+        <v>88</v>
+      </c>
       <c r="F17" s="26"/>
       <c r="G17" s="0" t="n">
         <f aca="false">COUNTIF(D17,"Sim")</f>
@@ -6947,12 +7118,12 @@
       </c>
       <c r="J17" s="0" t="n">
         <f aca="false">COUNTIF(D17,"NA")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="28" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B18" s="22"/>
       <c r="C18" s="23" t="s">
@@ -6968,14 +7139,16 @@
         <v>9</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="D19" s="34"/>
+        <v>90</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>43</v>
+      </c>
       <c r="E19" s="26"/>
       <c r="F19" s="26"/>
       <c r="G19" s="0" t="n">
         <f aca="false">COUNTIF(D19:D23,"Sim")</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H19" s="0" t="n">
         <f aca="false">COUNTIF(D19:D23,"Parcialmente")</f>
@@ -6996,9 +7169,11 @@
         <v>10</v>
       </c>
       <c r="C20" s="30" t="s">
-        <v>88</v>
-      </c>
-      <c r="D20" s="34"/>
+        <v>91</v>
+      </c>
+      <c r="D20" s="27" t="s">
+        <v>43</v>
+      </c>
       <c r="E20" s="26"/>
       <c r="F20" s="26"/>
     </row>
@@ -7008,9 +7183,11 @@
         <v>11</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="D21" s="34"/>
+        <v>92</v>
+      </c>
+      <c r="D21" s="27" t="s">
+        <v>43</v>
+      </c>
       <c r="E21" s="26"/>
       <c r="F21" s="26"/>
     </row>
@@ -7020,9 +7197,11 @@
         <v>12</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="D22" s="34"/>
+        <v>93</v>
+      </c>
+      <c r="D22" s="27" t="s">
+        <v>43</v>
+      </c>
       <c r="E22" s="26"/>
       <c r="F22" s="26"/>
     </row>
@@ -7032,9 +7211,11 @@
         <v>13</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="D23" s="34"/>
+        <v>94</v>
+      </c>
+      <c r="D23" s="27" t="s">
+        <v>43</v>
+      </c>
       <c r="E23" s="26"/>
       <c r="F23" s="26"/>
     </row>
@@ -7054,14 +7235,16 @@
         <v>15</v>
       </c>
       <c r="C25" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="D25" s="34"/>
+        <v>45</v>
+      </c>
+      <c r="D25" s="27" t="s">
+        <v>43</v>
+      </c>
       <c r="E25" s="26"/>
       <c r="F25" s="26"/>
       <c r="G25" s="31" t="n">
         <f aca="false">COUNTIF(D25:D26,"Sim")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H25" s="31" t="n">
         <f aca="false">COUNTIF(D25:D26,"Parcialmente")</f>
@@ -7082,15 +7265,17 @@
         <v>16</v>
       </c>
       <c r="C26" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="D26" s="34"/>
+        <v>95</v>
+      </c>
+      <c r="D26" s="27" t="s">
+        <v>43</v>
+      </c>
       <c r="E26" s="26"/>
       <c r="F26" s="26"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="28" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B27" s="22"/>
       <c r="C27" s="23" t="s">
@@ -7106,14 +7291,16 @@
         <v>17</v>
       </c>
       <c r="C28" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="D28" s="34"/>
+        <v>90</v>
+      </c>
+      <c r="D28" s="27" t="s">
+        <v>43</v>
+      </c>
       <c r="E28" s="26"/>
       <c r="F28" s="26"/>
       <c r="G28" s="0" t="n">
         <f aca="false">COUNTIF(D28:D33,"Sim")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H28" s="0" t="n">
         <f aca="false">COUNTIF(D28:D33,"Parcialmente")</f>
@@ -7121,7 +7308,7 @@
       </c>
       <c r="I28" s="0" t="n">
         <f aca="false">COUNTIF(D28:D33,"Não")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J28" s="0" t="n">
         <f aca="false">COUNTIF(D28:D33,"NA")</f>
@@ -7134,9 +7321,11 @@
         <v>18</v>
       </c>
       <c r="C29" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="D29" s="34"/>
+        <v>97</v>
+      </c>
+      <c r="D29" s="27" t="s">
+        <v>43</v>
+      </c>
       <c r="E29" s="26"/>
       <c r="F29" s="26"/>
     </row>
@@ -7146,9 +7335,11 @@
         <v>19</v>
       </c>
       <c r="C30" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="D30" s="34"/>
+        <v>98</v>
+      </c>
+      <c r="D30" s="27" t="s">
+        <v>43</v>
+      </c>
       <c r="E30" s="26"/>
       <c r="F30" s="26"/>
     </row>
@@ -7158,9 +7349,11 @@
         <v>20</v>
       </c>
       <c r="C31" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="D31" s="34"/>
+        <v>99</v>
+      </c>
+      <c r="D31" s="27" t="s">
+        <v>43</v>
+      </c>
       <c r="E31" s="26"/>
       <c r="F31" s="26"/>
     </row>
@@ -7170,27 +7363,31 @@
         <v>21</v>
       </c>
       <c r="C32" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="D32" s="34"/>
+        <v>100</v>
+      </c>
+      <c r="D32" s="27" t="s">
+        <v>61</v>
+      </c>
       <c r="E32" s="26"/>
       <c r="F32" s="26"/>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="28"/>
       <c r="B33" s="25" t="n">
         <v>22</v>
       </c>
       <c r="C33" s="26" t="s">
-        <v>98</v>
-      </c>
-      <c r="D33" s="34"/>
+        <v>101</v>
+      </c>
+      <c r="D33" s="27" t="s">
+        <v>61</v>
+      </c>
       <c r="E33" s="26"/>
       <c r="F33" s="26"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="21" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B34" s="22"/>
       <c r="C34" s="23" t="s">
@@ -7206,14 +7403,16 @@
         <v>23</v>
       </c>
       <c r="C35" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="D35" s="34"/>
+        <v>102</v>
+      </c>
+      <c r="D35" s="27" t="s">
+        <v>43</v>
+      </c>
       <c r="E35" s="26"/>
       <c r="F35" s="26"/>
       <c r="G35" s="0" t="n">
         <f aca="false">COUNTIF(D35:D40,"Sim")</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H35" s="0" t="n">
         <f aca="false">COUNTIF(D35:D40,"Parcialmente")</f>
@@ -7221,7 +7420,7 @@
       </c>
       <c r="I35" s="0" t="n">
         <f aca="false">COUNTIF(D35:D40,"Não")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" s="0" t="n">
         <f aca="false">COUNTIF(D35:D40,"NA")</f>
@@ -7234,9 +7433,11 @@
         <v>24</v>
       </c>
       <c r="C36" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="D36" s="34"/>
+        <v>103</v>
+      </c>
+      <c r="D36" s="27" t="s">
+        <v>43</v>
+      </c>
       <c r="E36" s="26"/>
       <c r="F36" s="26"/>
     </row>
@@ -7246,9 +7447,11 @@
         <v>25</v>
       </c>
       <c r="C37" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="D37" s="34"/>
+        <v>104</v>
+      </c>
+      <c r="D37" s="27" t="s">
+        <v>43</v>
+      </c>
       <c r="E37" s="26"/>
       <c r="F37" s="26"/>
     </row>
@@ -7258,9 +7461,11 @@
         <v>26</v>
       </c>
       <c r="C38" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="D38" s="34"/>
+        <v>105</v>
+      </c>
+      <c r="D38" s="27" t="s">
+        <v>43</v>
+      </c>
       <c r="E38" s="26"/>
       <c r="F38" s="26"/>
     </row>
@@ -7270,9 +7475,11 @@
         <v>27</v>
       </c>
       <c r="C39" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="D39" s="34"/>
+        <v>106</v>
+      </c>
+      <c r="D39" s="27" t="s">
+        <v>43</v>
+      </c>
       <c r="E39" s="26"/>
       <c r="F39" s="26"/>
     </row>
@@ -7282,15 +7489,17 @@
         <v>28</v>
       </c>
       <c r="C40" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="D40" s="34"/>
+        <v>107</v>
+      </c>
+      <c r="D40" s="27" t="s">
+        <v>61</v>
+      </c>
       <c r="E40" s="26"/>
       <c r="F40" s="26"/>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="38" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B41" s="22"/>
       <c r="C41" s="23" t="s">
@@ -7306,14 +7515,16 @@
         <v>29</v>
       </c>
       <c r="C42" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="D42" s="34"/>
+        <v>74</v>
+      </c>
+      <c r="D42" s="27" t="s">
+        <v>43</v>
+      </c>
       <c r="E42" s="26"/>
       <c r="F42" s="26"/>
       <c r="G42" s="0" t="n">
         <f aca="false">COUNTIF(D42:D44,"Sim")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H42" s="0" t="n">
         <f aca="false">COUNTIF(D42:D44,"Parcialmente")</f>
@@ -7321,7 +7532,7 @@
       </c>
       <c r="I42" s="0" t="n">
         <f aca="false">COUNTIF(D42:D44,"Não")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" s="0" t="n">
         <f aca="false">COUNTIF(D42:D44,"NA")</f>
@@ -7334,9 +7545,11 @@
         <v>30</v>
       </c>
       <c r="C43" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="D43" s="34"/>
+        <v>75</v>
+      </c>
+      <c r="D43" s="27" t="s">
+        <v>43</v>
+      </c>
       <c r="E43" s="26"/>
       <c r="F43" s="26"/>
     </row>
@@ -7346,9 +7559,11 @@
         <v>31</v>
       </c>
       <c r="C44" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="D44" s="34"/>
+        <v>76</v>
+      </c>
+      <c r="D44" s="27" t="s">
+        <v>61</v>
+      </c>
       <c r="E44" s="26"/>
       <c r="F44" s="26"/>
     </row>
@@ -7362,16 +7577,20 @@
       <c r="E45" s="24"/>
       <c r="F45" s="24"/>
     </row>
-    <row r="46" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="38"/>
       <c r="B46" s="25" t="n">
         <v>32</v>
       </c>
       <c r="C46" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="D46" s="34"/>
-      <c r="E46" s="26"/>
+        <v>78</v>
+      </c>
+      <c r="D46" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="E46" s="26" t="s">
+        <v>108</v>
+      </c>
       <c r="F46" s="26"/>
       <c r="G46" s="0" t="n">
         <f aca="false">COUNTIF(D46:D48,"Sim")</f>
@@ -7387,7 +7606,7 @@
       </c>
       <c r="J46" s="0" t="n">
         <f aca="false">COUNTIF(D46:D48,"NA")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7396,9 +7615,11 @@
         <v>33</v>
       </c>
       <c r="C47" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="D47" s="34"/>
+        <v>109</v>
+      </c>
+      <c r="D47" s="27" t="s">
+        <v>57</v>
+      </c>
       <c r="E47" s="26"/>
       <c r="F47" s="26"/>
     </row>
@@ -7408,9 +7629,11 @@
         <v>34</v>
       </c>
       <c r="C48" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="D48" s="34"/>
+        <v>79</v>
+      </c>
+      <c r="D48" s="27" t="s">
+        <v>57</v>
+      </c>
       <c r="E48" s="26"/>
       <c r="F48" s="26"/>
     </row>
@@ -7502,34 +7725,34 @@
       <c r="B3" s="12"/>
       <c r="C3" s="16"/>
       <c r="D3" s="17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E3" s="17"/>
       <c r="F3" s="17"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B5" s="22"/>
       <c r="C5" s="23" t="s">
@@ -7545,7 +7768,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D6" s="27"/>
       <c r="E6" s="26"/>
@@ -7583,7 +7806,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D8" s="27"/>
       <c r="E8" s="26"/>
@@ -7621,7 +7844,7 @@
         <v>3</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D10" s="27"/>
       <c r="E10" s="26"/>
@@ -7649,7 +7872,7 @@
         <v>4</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D11" s="27"/>
       <c r="E11" s="26"/>
@@ -7661,7 +7884,7 @@
         <v>5</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D12" s="27"/>
       <c r="E12" s="26"/>
@@ -7683,7 +7906,7 @@
         <v>6</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D14" s="27"/>
       <c r="E14" s="26"/>
@@ -7721,7 +7944,7 @@
         <v>7</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D16" s="27"/>
       <c r="E16" s="26"/>
@@ -7745,7 +7968,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="28" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B17" s="22"/>
       <c r="C17" s="23" t="s">
@@ -7761,7 +7984,7 @@
         <v>8</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D18" s="27"/>
       <c r="E18" s="26"/>
@@ -7789,7 +8012,7 @@
         <v>9</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D19" s="27"/>
       <c r="E19" s="26"/>
@@ -7811,7 +8034,7 @@
         <v>10</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D21" s="27"/>
       <c r="E21" s="26"/>
@@ -7835,7 +8058,7 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="28" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B22" s="22"/>
       <c r="C22" s="23" t="s">
@@ -7851,7 +8074,7 @@
         <v>11</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D23" s="27"/>
       <c r="E23" s="26"/>
@@ -7879,7 +8102,7 @@
         <v>12</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D24" s="27"/>
       <c r="E24" s="26"/>
@@ -7891,7 +8114,7 @@
         <v>13</v>
       </c>
       <c r="C25" s="26" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D25" s="27"/>
       <c r="E25" s="26"/>
@@ -7903,7 +8126,7 @@
         <v>14</v>
       </c>
       <c r="C26" s="26" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D26" s="27"/>
       <c r="E26" s="26"/>
@@ -7915,7 +8138,7 @@
         <v>15</v>
       </c>
       <c r="C27" s="26" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D27" s="27"/>
       <c r="E27" s="26"/>
@@ -7927,7 +8150,7 @@
         <v>16</v>
       </c>
       <c r="C28" s="26" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D28" s="27"/>
       <c r="E28" s="26"/>
@@ -7935,7 +8158,7 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="21" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B29" s="22"/>
       <c r="C29" s="23" t="s">
@@ -7951,7 +8174,7 @@
         <v>17</v>
       </c>
       <c r="C30" s="30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D30" s="27"/>
       <c r="E30" s="26"/>
@@ -7979,7 +8202,7 @@
         <v>18</v>
       </c>
       <c r="C31" s="26" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D31" s="27"/>
       <c r="E31" s="26"/>
@@ -7991,7 +8214,7 @@
         <v>19</v>
       </c>
       <c r="C32" s="26" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D32" s="27"/>
       <c r="E32" s="26"/>
@@ -8003,7 +8226,7 @@
         <v>20</v>
       </c>
       <c r="C33" s="26" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D33" s="27"/>
       <c r="E33" s="26"/>
@@ -8015,7 +8238,7 @@
         <v>21</v>
       </c>
       <c r="C34" s="26" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D34" s="27"/>
       <c r="E34" s="26"/>
@@ -8027,7 +8250,7 @@
         <v>22</v>
       </c>
       <c r="C35" s="26" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D35" s="27"/>
       <c r="E35" s="26"/>
@@ -8039,7 +8262,7 @@
         <v>23</v>
       </c>
       <c r="C36" s="26" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D36" s="27"/>
       <c r="E36" s="26"/>
@@ -8047,7 +8270,7 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="21" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B37" s="22"/>
       <c r="C37" s="23" t="s">
@@ -8063,7 +8286,7 @@
         <v>24</v>
       </c>
       <c r="C38" s="26" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D38" s="27"/>
       <c r="E38" s="26"/>
@@ -8091,7 +8314,7 @@
         <v>25</v>
       </c>
       <c r="C39" s="26" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D39" s="27"/>
       <c r="E39" s="26"/>
@@ -8103,7 +8326,7 @@
         <v>26</v>
       </c>
       <c r="C40" s="26" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D40" s="27"/>
       <c r="E40" s="26"/>
@@ -8115,7 +8338,7 @@
         <v>27</v>
       </c>
       <c r="C41" s="26" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D41" s="27"/>
       <c r="E41" s="26"/>
@@ -8127,7 +8350,7 @@
         <v>28</v>
       </c>
       <c r="C42" s="26" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D42" s="27"/>
       <c r="E42" s="26"/>
@@ -8139,7 +8362,7 @@
         <v>29</v>
       </c>
       <c r="C43" s="26" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D43" s="27"/>
       <c r="E43" s="26"/>
@@ -8147,7 +8370,7 @@
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="38" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B44" s="22"/>
       <c r="C44" s="23" t="s">
@@ -8163,7 +8386,7 @@
         <v>30</v>
       </c>
       <c r="C45" s="26" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D45" s="27"/>
       <c r="E45" s="26"/>
@@ -8191,7 +8414,7 @@
         <v>31</v>
       </c>
       <c r="C46" s="26" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D46" s="27"/>
       <c r="E46" s="26"/>
@@ -8203,7 +8426,7 @@
         <v>32</v>
       </c>
       <c r="C47" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D47" s="27"/>
       <c r="E47" s="26"/>
@@ -8225,7 +8448,7 @@
         <v>33</v>
       </c>
       <c r="C49" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D49" s="27"/>
       <c r="E49" s="26"/>
@@ -8253,7 +8476,7 @@
         <v>34</v>
       </c>
       <c r="C50" s="26" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D50" s="27"/>
       <c r="E50" s="26"/>
@@ -8265,7 +8488,7 @@
         <v>35</v>
       </c>
       <c r="C51" s="26" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D51" s="27"/>
       <c r="E51" s="26"/>
@@ -8367,34 +8590,34 @@
       <c r="B3" s="12"/>
       <c r="C3" s="16"/>
       <c r="D3" s="17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E3" s="17"/>
       <c r="F3" s="17"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B5" s="22"/>
       <c r="C5" s="23" t="s">
@@ -8410,7 +8633,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D6" s="27"/>
       <c r="E6" s="26"/>
@@ -8448,7 +8671,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D8" s="27"/>
       <c r="E8" s="26"/>
@@ -8486,7 +8709,7 @@
         <v>3</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D10" s="27"/>
       <c r="E10" s="26"/>
@@ -8514,7 +8737,7 @@
         <v>4</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D11" s="27"/>
       <c r="E11" s="26"/>
@@ -8526,7 +8749,7 @@
         <v>5</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D12" s="27"/>
       <c r="E12" s="26"/>
@@ -8548,7 +8771,7 @@
         <v>6</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D14" s="27"/>
       <c r="E14" s="26"/>
@@ -8586,7 +8809,7 @@
         <v>7</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D16" s="27"/>
       <c r="E16" s="26"/>
@@ -8610,7 +8833,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="28" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B17" s="22"/>
       <c r="C17" s="23" t="s">
@@ -8626,7 +8849,7 @@
         <v>8</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D18" s="27"/>
       <c r="E18" s="26"/>
@@ -8650,7 +8873,7 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="21" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B19" s="22"/>
       <c r="C19" s="23" t="s">
@@ -8666,7 +8889,7 @@
         <v>9</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D20" s="27"/>
       <c r="E20" s="26"/>
@@ -8694,7 +8917,7 @@
         <v>10</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D21" s="27"/>
       <c r="E21" s="26"/>
@@ -8706,7 +8929,7 @@
         <v>11</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D22" s="27"/>
       <c r="E22" s="26"/>
@@ -8718,7 +8941,7 @@
         <v>12</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D23" s="27"/>
       <c r="E23" s="26"/>
@@ -8730,7 +8953,7 @@
         <v>13</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D24" s="27"/>
       <c r="E24" s="26"/>
@@ -8738,7 +8961,7 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="21" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B25" s="22"/>
       <c r="C25" s="23" t="s">
@@ -8754,7 +8977,7 @@
         <v>14</v>
       </c>
       <c r="C26" s="26" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D26" s="27"/>
       <c r="E26" s="26"/>
@@ -8782,7 +9005,7 @@
         <v>15</v>
       </c>
       <c r="C27" s="26" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D27" s="27"/>
       <c r="E27" s="26"/>
@@ -8794,7 +9017,7 @@
         <v>16</v>
       </c>
       <c r="C28" s="26" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="D28" s="27"/>
       <c r="E28" s="26"/>
@@ -8802,7 +9025,7 @@
     </row>
     <row r="29" s="31" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="21" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B29" s="22"/>
       <c r="C29" s="23" t="s">
@@ -8818,7 +9041,7 @@
         <v>24</v>
       </c>
       <c r="C30" s="30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D30" s="27"/>
       <c r="E30" s="26"/>
@@ -8846,7 +9069,7 @@
         <v>25</v>
       </c>
       <c r="C31" s="26" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D31" s="27"/>
       <c r="E31" s="26"/>
@@ -8868,7 +9091,7 @@
         <v>26</v>
       </c>
       <c r="C33" s="30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D33" s="27"/>
       <c r="E33" s="26"/>
@@ -8896,7 +9119,7 @@
         <v>27</v>
       </c>
       <c r="C34" s="26" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D34" s="27"/>
       <c r="E34" s="26"/>
@@ -8904,7 +9127,7 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="21" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B35" s="22"/>
       <c r="C35" s="23" t="s">
@@ -8920,7 +9143,7 @@
         <v>19</v>
       </c>
       <c r="C36" s="26" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D36" s="27"/>
       <c r="E36" s="26"/>
@@ -8948,7 +9171,7 @@
         <v>20</v>
       </c>
       <c r="C37" s="26" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D37" s="27"/>
       <c r="E37" s="26"/>
@@ -8960,7 +9183,7 @@
         <v>21</v>
       </c>
       <c r="C38" s="26" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D38" s="27"/>
       <c r="E38" s="26"/>
@@ -8972,7 +9195,7 @@
         <v>22</v>
       </c>
       <c r="C39" s="26" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D39" s="27"/>
       <c r="E39" s="26"/>
@@ -8984,7 +9207,7 @@
         <v>23</v>
       </c>
       <c r="C40" s="26" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D40" s="27"/>
       <c r="E40" s="26"/>
@@ -8996,7 +9219,7 @@
         <v>24</v>
       </c>
       <c r="C41" s="26" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D41" s="27"/>
       <c r="E41" s="26"/>
@@ -9008,7 +9231,7 @@
         <v>25</v>
       </c>
       <c r="C42" s="26" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D42" s="27"/>
       <c r="E42" s="26"/>
@@ -9016,7 +9239,7 @@
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="38" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B43" s="22"/>
       <c r="C43" s="23" t="s">
@@ -9032,7 +9255,7 @@
         <v>26</v>
       </c>
       <c r="C44" s="26" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D44" s="27"/>
       <c r="E44" s="26"/>
@@ -9060,7 +9283,7 @@
         <v>27</v>
       </c>
       <c r="C45" s="26" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D45" s="27"/>
       <c r="E45" s="26"/>
@@ -9072,7 +9295,7 @@
         <v>28</v>
       </c>
       <c r="C46" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D46" s="27"/>
       <c r="E46" s="26"/>
@@ -9094,7 +9317,7 @@
         <v>29</v>
       </c>
       <c r="C48" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D48" s="27"/>
       <c r="E48" s="26"/>
@@ -9122,7 +9345,7 @@
         <v>30</v>
       </c>
       <c r="C49" s="26" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D49" s="27"/>
       <c r="E49" s="26"/>
@@ -9134,7 +9357,7 @@
         <v>31</v>
       </c>
       <c r="C50" s="26" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D50" s="27"/>
       <c r="E50" s="26"/>
